--- a/monthWiseDetails.xlsx
+++ b/monthWiseDetails.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,7 +442,7 @@
           <t>2021-22</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>2022-23</t>
         </is>
@@ -471,25 +471,65 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>JUL</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>AUG</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SEP</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>OCT</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>APR</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>JUN</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>JUL</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>AUG</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>SEP</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>OCT</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -514,19 +554,43 @@
         <v>211.58</v>
       </c>
       <c r="F4" t="n">
-        <v>643.91</v>
+        <v>216.22</v>
       </c>
       <c r="G4" t="n">
+        <v>215.2800000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>214.7099999999998</v>
+      </c>
+      <c r="I4" t="n">
+        <v>216.9200000000001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1507.04</v>
+      </c>
+      <c r="K4" t="n">
         <v>232.92</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>214.7</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>214.96</v>
       </c>
-      <c r="J4" t="n">
-        <v>662.58</v>
+      <c r="N4" t="n">
+        <v>218.38</v>
+      </c>
+      <c r="O4" t="n">
+        <v>218.4200000000001</v>
+      </c>
+      <c r="P4" t="n">
+        <v>217.6899999999998</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>211.6300000000001</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1528.7</v>
       </c>
     </row>
     <row r="5">
@@ -548,19 +612,43 @@
         <v>17.99</v>
       </c>
       <c r="F5" t="n">
-        <v>53.42</v>
+        <v>17.92999999999999</v>
       </c>
       <c r="G5" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21.35000000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18.70999999999999</v>
+      </c>
+      <c r="J5" t="n">
+        <v>131.63</v>
+      </c>
+      <c r="K5" t="n">
         <v>40.43</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="n">
         <v>21.76</v>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
         <v>22.19</v>
       </c>
-      <c r="J5" t="n">
-        <v>84.38</v>
+      <c r="N5" t="n">
+        <v>21.55000000000001</v>
+      </c>
+      <c r="O5" t="n">
+        <v>22.29999999999998</v>
+      </c>
+      <c r="P5" t="n">
+        <v>22.36000000000001</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="R5" t="n">
+        <v>169.97</v>
       </c>
     </row>
     <row r="6">
@@ -582,19 +670,43 @@
         <v>0.22</v>
       </c>
       <c r="F6" t="n">
-        <v>0.43</v>
+        <v>0.1200000000000001</v>
       </c>
       <c r="G6" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K6" t="n">
         <v>1.54</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
         <v>1.07</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
         <v>0.71</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.32</v>
+      <c r="N6" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2900000000000009</v>
+      </c>
+      <c r="R6" t="n">
+        <v>9.880000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -616,59 +728,339 @@
         <v>0.6099999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>1.38</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G7" t="n">
+        <v>0.7500000000000002</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6099999999999999</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.97</v>
       </c>
-      <c r="H7" t="n">
+      <c r="L7" t="n">
         <v>0.6100000000000001</v>
       </c>
-      <c r="I7" t="n">
+      <c r="M7" t="n">
         <v>0.9499999999999997</v>
       </c>
-      <c r="J7" t="n">
-        <v>2.53</v>
+      <c r="N7" t="n">
+        <v>0.9100000000000001</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.7500000000000004</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.6999999999999993</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.6100000000000003</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>PU31</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.469999999999999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.620000000000001</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.989999999999998</v>
+      </c>
+      <c r="R8" t="n">
+        <v>20.38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5075</v>
+      </c>
+      <c r="C9" t="n">
+        <v>407.59</v>
+      </c>
+      <c r="D9" t="n">
+        <v>378.6100000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>403.4300000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>455</v>
+      </c>
+      <c r="G9" t="n">
+        <v>421.0099999999998</v>
+      </c>
+      <c r="H9" t="n">
+        <v>424.7800000000002</v>
+      </c>
+      <c r="I9" t="n">
+        <v>540.29</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3030.71</v>
+      </c>
+      <c r="K9" t="n">
+        <v>539.83</v>
+      </c>
+      <c r="L9" t="n">
+        <v>466.36</v>
+      </c>
+      <c r="M9" t="n">
+        <v>451.8199999999999</v>
+      </c>
+      <c r="N9" t="n">
+        <v>476.55</v>
+      </c>
+      <c r="O9" t="n">
+        <v>446.9099999999999</v>
+      </c>
+      <c r="P9" t="n">
+        <v>448.9200000000001</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>566.02</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3396.41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>PU32</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B10" t="n">
         <v>350.79</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C10" t="n">
         <v>21.7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D10" t="n">
         <v>20.03</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E10" t="n">
         <v>37.96</v>
       </c>
-      <c r="F8" t="n">
-        <v>79.69</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="F10" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>29.72999999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>38.14000000000001</v>
+      </c>
+      <c r="J10" t="n">
+        <v>209.56</v>
+      </c>
+      <c r="K10" t="n">
         <v>38.84</v>
       </c>
-      <c r="H8" t="n">
+      <c r="L10" t="n">
         <v>31.19</v>
       </c>
-      <c r="I8" t="n">
+      <c r="M10" t="n">
         <v>32.73999999999999</v>
       </c>
-      <c r="J8" t="n">
-        <v>102.77</v>
+      <c r="N10" t="n">
+        <v>29.19000000000001</v>
+      </c>
+      <c r="O10" t="n">
+        <v>30.88999999999999</v>
+      </c>
+      <c r="P10" t="n">
+        <v>33.78</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>33.65000000000001</v>
+      </c>
+      <c r="R10" t="n">
+        <v>230.28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PU27</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>187.82</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26.54</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="E11" t="n">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-31.77</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.079999999999998</v>
+      </c>
+      <c r="H11" t="n">
+        <v>12.18000000000001</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.459999999999994</v>
+      </c>
+      <c r="J11" t="n">
+        <v>94.47</v>
+      </c>
+      <c r="K11" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="L11" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="M11" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="N11" t="n">
+        <v>16.26000000000001</v>
+      </c>
+      <c r="O11" t="n">
+        <v>27.89</v>
+      </c>
+      <c r="P11" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="R11" t="n">
+        <v>123.69</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PU28</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>113.64</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.539999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6.949999999999999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="J12" t="n">
+        <v>52.86</v>
+      </c>
+      <c r="K12" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-2.359999999999999</v>
+      </c>
+      <c r="M12" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9.180000000000003</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5.989999999999995</v>
+      </c>
+      <c r="P12" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>9.920000000000002</v>
+      </c>
+      <c r="R12" t="n">
+        <v>69.25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="K2:R2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
